--- a/Greenhouse growth data/CGR3 greenhouse growth traits.xlsx
+++ b/Greenhouse growth data/CGR3 greenhouse growth traits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\CGR3 manuscript\Data files for github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloch\Documents\GitHub\CGR3-tobacco-2024\Greenhouse growth data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3525" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3528" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="greenhouse growth" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Genotype</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>WT</t>
-  </si>
-  <si>
-    <t>36625-8</t>
-  </si>
-  <si>
-    <t>36625-10</t>
-  </si>
-  <si>
-    <t>36625-14</t>
   </si>
   <si>
     <t>Dry Stem and Leaf mass (g)</t>
@@ -444,18 +435,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -495,7 +486,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -516,7 +507,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -537,7 +528,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -558,7 +549,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -578,7 +569,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -599,7 +590,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -620,7 +611,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -640,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -661,7 +652,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -681,9 +672,9 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -701,9 +692,9 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -722,9 +713,9 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -743,9 +734,9 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -763,9 +754,9 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -784,9 +775,9 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -804,9 +795,9 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -824,9 +815,9 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -845,9 +836,9 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -866,9 +857,9 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -887,9 +878,9 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -908,9 +899,9 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -928,9 +919,9 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -949,9 +940,9 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -970,9 +961,9 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -990,9 +981,9 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1010,9 +1001,9 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -1030,9 +1021,9 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -1051,9 +1042,9 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -1072,9 +1063,9 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1093,9 +1084,9 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>14</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1113,9 +1104,9 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>14</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1134,9 +1125,9 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>14</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1155,9 +1146,9 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>8</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>14</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1176,9 +1167,9 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>14</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1197,9 +1188,9 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>14</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -1218,9 +1209,9 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>8</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>14</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -1238,9 +1229,9 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>8</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>14</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -1259,9 +1250,9 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>14</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1279,9 +1270,9 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1308,33 +1299,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>8</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -1346,9 +1337,9 @@
         <v>25.248120300751879</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
@@ -1360,9 +1351,9 @@
         <v>20.338345864661655</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -1374,9 +1365,9 @@
         <v>31.225563909774436</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>8</v>
       </c>
       <c r="B5" s="8">
         <v>4</v>
@@ -1388,9 +1379,9 @@
         <v>26.967418546365916</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>8</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
@@ -1402,9 +1393,9 @@
         <v>32.680451127819552</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
@@ -1416,9 +1407,9 @@
         <v>26.303258145363408</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>10</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -1430,9 +1421,9 @@
         <v>24.357142857142858</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>10</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -1444,9 +1435,9 @@
         <v>24.313283208020053</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>10</v>
       </c>
       <c r="B10" s="8">
         <v>3</v>
@@ -1458,9 +1449,9 @@
         <v>37.492481203007522</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
@@ -1472,9 +1463,9 @@
         <v>30.119047619047617</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>5</v>
@@ -1486,9 +1477,9 @@
         <v>27.253132832080201</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>6</v>
@@ -1500,9 +1491,9 @@
         <v>26.873433583959901</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>14</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -1514,9 +1505,9 @@
         <v>28.595238095238095</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -1528,9 +1519,9 @@
         <v>33.22431077694236</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>3</v>
@@ -1542,9 +1533,9 @@
         <v>30.324561403508774</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>14</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
@@ -1556,9 +1547,9 @@
         <v>26.472431077694235</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <v>5</v>
@@ -1570,9 +1561,9 @@
         <v>28.411027568922304</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>8</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>14</v>
       </c>
       <c r="B19" s="8">
         <v>6</v>
@@ -1584,7 +1575,7 @@
         <v>26.347117794486213</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1589,7 @@
         <v>26.46365914786967</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1603,7 @@
         <v>24.819548872180455</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1617,7 @@
         <v>34.75689223057644</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1640,12 +1631,12 @@
         <v>35.959899749373434</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7">
         <v>52</v>
